--- a/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/graph-excel.xlsx
+++ b/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/graph-excel.xlsx
@@ -8,52 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mannsee/Documents/Assessments/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63108683-AB8D-F941-BF89-F463A50E49FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5BB56B-214C-2543-982A-3A084B5D7708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="680" windowWidth="15140" windowHeight="18980" activeTab="1" xr2:uid="{E87DA1E5-4B9A-F64B-9951-0716BE63B2DA}"/>
+    <workbookView xWindow="3940" yWindow="2480" windowWidth="20240" windowHeight="10820" activeTab="2" xr2:uid="{E87DA1E5-4B9A-F64B-9951-0716BE63B2DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$A$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$B$1:$D$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$B$2:$D$2</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$B$4:$D$4</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$A$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$A$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$A$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$B$1:$D$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$B$2:$D$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$A$4</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$B$4:$D$4</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet2!$A$2</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet2!$A$3</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet2!$A$4</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet2!$B$1:$D$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet2!$B$2:$D$2</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet2!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet2!$B$4:$D$4</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet2!$A$2</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet2!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$1:$D$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet2!$A$4</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet2!$B$1:$D$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet2!$B$2:$D$2</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet2!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet2!$B$4:$D$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$B$2:$D$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$B$4:$D$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$A$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$A$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$B$28:$B$30</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$A$28:$A$30</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$B$28:$B$30</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$A$28:$A$30</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$B$28:$B$30</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$A$28:$A$30</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$B$28:$B$30</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$A$28:$A$30</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$B$28:$B$30</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$A$28:$A$30</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$B$28:$B$30</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet2!$A$28:$A$30</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet2!$B$28:$B$30</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet2!$A$28:$A$30</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet2!$B$28:$B$30</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$A$28:$A$30</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$B$28:$B$30</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$A$28:$A$30</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet2!$A$2</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet2!$A$3</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet2!$A$4</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet2!$B$1:$E$1</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet2!$B$2:$E$2</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet2!$B$3:$E$3</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet2!$B$4:$E$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Stakeholder</t>
   </si>
@@ -150,7 +141,324 @@
     <t>Net cash flow (millions)</t>
   </si>
   <si>
-    <t>Profitability (net profij margin)</t>
+    <t>Profitability</t>
+  </si>
+  <si>
+    <t>*Net margin</t>
+  </si>
+  <si>
+    <t>Weaknesses</t>
+  </si>
+  <si>
+    <t>Threats</t>
+  </si>
+  <si>
+    <t>Situation  Analysis</t>
+  </si>
+  <si>
+    <t>Strengths</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Value  and  quality</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Strong  management  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Customer  loyalty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Friendly  organisational  culture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Level  of  available  finance  for  investment  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Brand  name  not  developed  as  well  it  could   be</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Growing organisation  </t>
+    </r>
+  </si>
+  <si>
+    <t>Opportunities</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Schools  needing  to  upgrade  technology</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Opportunities  to  offer  a  range  of  services  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Oportunities  for  synergies  across  all   services  and  products</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>High  level  of  competition  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Economic  downturn  meaning  less  spent   generally  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Failing  to  satisfy  clients  demands  </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -158,9 +466,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="_-[$$-C09]* #,##0_-;\-[$$-C09]* #,##0_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-C09]* #,##0_-;\-[$$-C09]* #,##0_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,6 +516,31 @@
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -319,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -345,15 +678,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -372,6 +701,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -414,10 +752,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mj-ea"/>
@@ -463,17 +798,14 @@
           <a:pPr>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mj-ea"/>
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -755,6 +1087,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="0.10179691595422197"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A2A3-CA4B-AF7A-227C7E52C734}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -926,6 +1280,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="854594368"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -984,6 +1339,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="854596160"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="13"/>
       </c:valAx>
@@ -1087,6 +1443,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Profitability</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1119,27 +1505,37 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue (millions)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$28:$A$30</c:f>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1156,26 +1552,155 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$28:$B$30</c:f>
+              <c:f>Sheet2!$B$2:$B$4</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>_-[$$-C09]* #,##0_-;\-[$$-C09]* #,##0_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B33-A848-9B8C-7D5C9848D6AE}"/>
+              <c16:uniqueId val="{00000000-F19F-2249-892B-E99851F55EDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Profit (millions)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2019 (current)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020 (projection)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020 (revised projection)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-C09]* #,##0_-;\-[$$-C09]* #,##0_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F19F-2249-892B-E99851F55EDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net cash flow (millions)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2019 (current)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020 (projection)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020 (revised projection)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-C09]* #,##0_-;\-[$$-C09]* #,##0_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F19F-2249-892B-E99851F55EDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1187,12 +1712,213 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1401443584"/>
+        <c:axId val="1401447168"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profitability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.368932290648821E-2"/>
+                  <c:y val="-4.2591909910500235E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-F19F-2249-892B-E99851F55EDE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8264291237440683E-2"/>
+                  <c:y val="-4.2591909910500235E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-F19F-2249-892B-E99851F55EDE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6239512920773424E-2"/>
+                  <c:y val="-6.8802316009269671E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-F19F-2249-892B-E99851F55EDE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2019 (current)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020 (projection)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020 (revised projection)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F19F-2249-892B-E99851F55EDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549354816"/>
-        <c:axId val="549350336"/>
+        <c:axId val="1368305472"/>
+        <c:axId val="1368302784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="549354816"/>
+        <c:axId val="1401443584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1961,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549350336"/>
+        <c:crossAx val="1401447168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1243,7 +1969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="549350336"/>
+        <c:axId val="1401447168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,7 +1989,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="_-[$$-C09]* #,##0_-;\-[$$-C09]* #,##0_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1294,10 +2020,69 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549354816"/>
+        <c:crossAx val="1401443584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1368302784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1368305472"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1368305472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1368302784"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1306,16 +2091,40 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1388,12 +2197,9 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1977,7 +2783,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2085,11 +2891,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2100,11 +2901,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2136,9 +2932,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2194,22 +2987,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2379,6 +3173,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2447,19 +3252,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2532,23 +3338,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>842818</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>244764</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>41782</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>796636</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66964</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1437570</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>65043</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BFD700-986A-B785-BF76-A540905026BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA1030C-DF8D-C3BB-E3AC-22B681E1D988}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,10 +3766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2476213-BC4A-3745-933A-D22D94390F74}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B30"/>
+    <sheetView topLeftCell="A11" zoomScale="144" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2975,119 +3781,201 @@
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:6" s="15" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>25</v>
       </c>
+      <c r="F1" s="15" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>35</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>7</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>4</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="17">
         <f>C2/B2</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>45</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>9</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>5</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <f t="shared" ref="E3:E4" si="0">C3/B3</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>55</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>5</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>-3</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="str">
-        <f>A1</f>
-        <v>Performance</v>
-      </c>
-      <c r="B27" s="12" t="str">
-        <f>E1</f>
-        <v>Profitability (net profij margin)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="str">
-        <f t="shared" ref="A28:A30" si="1">A2</f>
-        <v>2019 (current)</v>
-      </c>
-      <c r="B28" s="19">
-        <f t="shared" ref="B28:B30" si="2">E2</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2020 (projection)</v>
-      </c>
-      <c r="B29" s="19">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2020 (revised projection)</v>
-      </c>
-      <c r="B30" s="19">
-        <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
+    <row r="27" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CFD06D-6C49-3A4C-9518-D2E4C3F9F268}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/graph-excel.xlsx
+++ b/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/graph-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mannsee/Documents/Assessments/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5BB56B-214C-2543-982A-3A084B5D7708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD25065-7D84-EF41-BDD6-47F47D99715D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3940" yWindow="2480" windowWidth="20240" windowHeight="10820" activeTab="2" xr2:uid="{E87DA1E5-4B9A-F64B-9951-0716BE63B2DA}"/>
   </bookViews>
@@ -3871,7 +3871,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A21"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/graph-excel.xlsx
+++ b/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/graph-excel.xlsx
@@ -8,42 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mannsee/Documents/Assessments/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD25065-7D84-EF41-BDD6-47F47D99715D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315998C-3869-674E-B9C6-33794057B8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="2480" windowWidth="20240" windowHeight="10820" activeTab="2" xr2:uid="{E87DA1E5-4B9A-F64B-9951-0716BE63B2DA}"/>
+    <workbookView xWindow="3940" yWindow="2480" windowWidth="20240" windowHeight="10820" xr2:uid="{E87DA1E5-4B9A-F64B-9951-0716BE63B2DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$B$28:$B$30</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$A$28:$A$30</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$B$28:$B$30</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$A$28:$A$30</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$B$28:$B$30</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$A$28:$A$30</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$B$28:$B$30</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$A$28:$A$30</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$B$28:$B$30</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$A$28:$A$30</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$B$28:$B$30</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet2!$A$28:$A$30</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet2!$B$28:$B$30</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet2!$A$28:$A$30</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet2!$B$28:$B$30</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$A$28:$A$30</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$B$28:$B$30</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$A$28:$A$30</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet2!$A$2</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet2!$A$3</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet2!$A$4</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet2!$B$1:$E$1</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet2!$B$2:$E$2</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet2!$B$3:$E$3</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet2!$B$4:$E$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2078,6 +2051,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1368302784"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3674,7 +3648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750E6181-8883-D348-805C-80C561C476C8}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD38"/>
     </sheetView>
   </sheetViews>
@@ -3870,7 +3844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CFD06D-6C49-3A4C-9518-D2E4C3F9F268}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/graph-excel.xlsx
+++ b/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/graph-excel.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mannsee/Documents/Assessments/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315998C-3869-674E-B9C6-33794057B8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B209C5FE-38B6-7144-8E86-E3BC3B5F7A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="2480" windowWidth="20240" windowHeight="10820" xr2:uid="{E87DA1E5-4B9A-F64B-9951-0716BE63B2DA}"/>
+    <workbookView xWindow="3940" yWindow="2480" windowWidth="20240" windowHeight="10820" activeTab="2" xr2:uid="{E87DA1E5-4B9A-F64B-9951-0716BE63B2DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="stakeholders" sheetId="1" r:id="rId1"/>
+    <sheet name="financial-graph" sheetId="2" r:id="rId2"/>
+    <sheet name="situation-analisys" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -794,7 +794,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$2</c:f>
+              <c:f>'financial-graph'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -873,7 +873,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:f>'financial-graph'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -890,7 +890,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$D$2</c:f>
+              <c:f>'financial-graph'!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-C09]* #,##0_-;\-[$$-C09]* #,##0_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
@@ -917,7 +917,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$3</c:f>
+              <c:f>'financial-graph'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -996,7 +996,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:f>'financial-graph'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1013,7 +1013,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$D$3</c:f>
+              <c:f>'financial-graph'!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-C09]* #,##0_-;\-[$$-C09]* #,##0_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1040,7 +1040,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$4</c:f>
+              <c:f>'financial-graph'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1141,7 +1141,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:f>'financial-graph'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1158,7 +1158,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$D$4</c:f>
+              <c:f>'financial-graph'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-C09]* #,##0_-;\-[$$-C09]* #,##0_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1487,7 +1487,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
+              <c:f>'financial-graph'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1508,7 +1508,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:f>'financial-graph'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1525,7 +1525,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$4</c:f>
+              <c:f>'financial-graph'!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-C09]* #,##0_-;\-[$$-C09]* #,##0_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1552,7 +1552,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
+              <c:f>'financial-graph'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1573,7 +1573,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:f>'financial-graph'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1590,7 +1590,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$4</c:f>
+              <c:f>'financial-graph'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-C09]* #,##0_-;\-[$$-C09]* #,##0_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1617,7 +1617,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$1</c:f>
+              <c:f>'financial-graph'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1638,7 +1638,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:f>'financial-graph'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1655,7 +1655,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$4</c:f>
+              <c:f>'financial-graph'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-C09]* #,##0_-;\-[$$-C09]* #,##0_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1698,7 +1698,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$1</c:f>
+              <c:f>'financial-graph'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1837,7 +1837,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:f>'financial-graph'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1854,7 +1854,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$4</c:f>
+              <c:f>'financial-graph'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3648,8 +3648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750E6181-8883-D348-805C-80C561C476C8}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3742,7 +3742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2476213-BC4A-3745-933A-D22D94390F74}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="144" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="144" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -3844,8 +3844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CFD06D-6C49-3A4C-9518-D2E4C3F9F268}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/graph-excel.xlsx
+++ b/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/graph-excel.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mannsee/Documents/Assessments/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCF331E-55A7-FD4C-9AB2-B6B5C7C68AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903B5B97-91D9-8D49-A2FE-5741FD933FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="3" xr2:uid="{E87DA1E5-4B9A-F64B-9951-0716BE63B2DA}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="5" xr2:uid="{E87DA1E5-4B9A-F64B-9951-0716BE63B2DA}"/>
   </bookViews>
   <sheets>
     <sheet name="stakeholders" sheetId="1" r:id="rId1"/>
     <sheet name="financial-graph" sheetId="2" r:id="rId2"/>
     <sheet name="situation-analisys" sheetId="4" r:id="rId3"/>
     <sheet name="Mind Mapping" sheetId="5" r:id="rId4"/>
+    <sheet name="success criteria" sheetId="6" r:id="rId5"/>
+    <sheet name="constraints" sheetId="7" r:id="rId6"/>
+    <sheet name="Comparing options" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="115">
   <si>
     <t>Stakeholder</t>
   </si>
@@ -434,6 +437,216 @@
       <t>Failing  to  satisfy  clients  demands  </t>
     </r>
   </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Clarity</t>
+  </si>
+  <si>
+    <t>Clear scope; focus on software/B2C, reducing hardware reliance.</t>
+  </si>
+  <si>
+    <t>Defined roles between brand and partners; lower complexity.</t>
+  </si>
+  <si>
+    <t>Focus on reducing single-source dependency via multiple sources.</t>
+  </si>
+  <si>
+    <t>Strategy to broaden offerings for individuals and institutions.</t>
+  </si>
+  <si>
+    <t>Stability</t>
+  </si>
+  <si>
+    <t>High; reduces exposure to manufacturing/supply chain risks.</t>
+  </si>
+  <si>
+    <t>Shifts manufacturing and distribution risks to partners.</t>
+  </si>
+  <si>
+    <t>Spreads risk across multiple regions and suppliers.</t>
+  </si>
+  <si>
+    <t>Revenue stability through diverse product categories.</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>Scalable via partner networks without internal expansion.</t>
+  </si>
+  <si>
+    <t>Moderate; constrained by CAPEX and operational complexity.</t>
+  </si>
+  <si>
+    <t>Scalable by targeting different segments and markets.</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>High; access on any device, anywhere, anytime.</t>
+  </si>
+  <si>
+    <t>High; ready-to-use devices with pre-installed software.</t>
+  </si>
+  <si>
+    <t>Indirect; improves product availability and delivery times.</t>
+  </si>
+  <si>
+    <t>Depends on design; offers customers more choices.</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Connects with ERP, learning platforms, and CRM.</t>
+  </si>
+  <si>
+    <t>Requires integration with partner systems and licensing.</t>
+  </si>
+  <si>
+    <t>Requires adding new product lines to sales/ERP systems.</t>
+  </si>
+  <si>
+    <t>Long-term potential, though initial investment is high.</t>
+  </si>
+  <si>
+    <t>Improved via diverse streams, though margins vary.</t>
+  </si>
+  <si>
+    <t>Extremely High; add users without increasing factory capacity.</t>
+  </si>
+  <si>
+    <t>High ERP demand to manage multiple global suppliers.</t>
+  </si>
+  <si>
+    <t>Strongest potential; low OPEX and recurring subscription revenue.</t>
+  </si>
+  <si>
+    <t>1 Cloud-First SaaS &amp; B2C</t>
+  </si>
+  <si>
+    <t>2 Hardware Partnerships</t>
+  </si>
+  <si>
+    <t>3 Diversified Manufacturing</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Timeframes</t>
+  </si>
+  <si>
+    <t>Medium timeframe required to design, test, and deploy a cloud-based B2C platform.</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Moderate upfront cost for cloud infrastructure, software redevelopment, and cybersecurity.</t>
+  </si>
+  <si>
+    <t>Skilled IT professionals, software developers, cloud architects, and cybersecurity specialists.</t>
+  </si>
+  <si>
+    <t>No manufacturing required; strong capability in software and content development is essential.</t>
+  </si>
+  <si>
+    <t>In-house software designers and developers can be used; external consultants may be required for cloud architecture.</t>
+  </si>
+  <si>
+    <t>Minimal logistics and storage requirements as software is delivered digitally.</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Company website, ERP system, and customer platforms must be upgraded to support cloud access and subscriptions.</t>
+  </si>
+  <si>
+    <t>Lower per-unit margins, but reduced logistics/manufacturing costs.</t>
+  </si>
+  <si>
+    <t>Short to medium timeframe depending on partner selection and contract negotiation.</t>
+  </si>
+  <si>
+    <t>Long timeframe due to factory setup, supplier selection, and operational transition.</t>
+  </si>
+  <si>
+    <t>Medium to long timeframe to research, design, source, and launch new products.</t>
+  </si>
+  <si>
+    <t>Lower capital investment than manufacturing, but reduced profit margins per unit sold.</t>
+  </si>
+  <si>
+    <t>High initial investment for additional facilities and supplier onboarding.</t>
+  </si>
+  <si>
+    <t>Moderate to high cost depending on product types and sourcing model.</t>
+  </si>
+  <si>
+    <t>Resources Required</t>
+  </si>
+  <si>
+    <t>Legal, procurement, and partnership management resources; reduced internal manufacturing staff.</t>
+  </si>
+  <si>
+    <t>Skilled manufacturing workers, supply chain managers, and operations staff.</t>
+  </si>
+  <si>
+    <t>Product managers, technical specialists, supplier relationships, and support staff.</t>
+  </si>
+  <si>
+    <t>Manufacturing is outsourced; software and content production remains in-house.</t>
+  </si>
+  <si>
+    <t>Requires strong manufacturing and supply chain capability across multiple locations.</t>
+  </si>
+  <si>
+    <t>Manufacturing capability may need to be expanded or outsourced for new product types.</t>
+  </si>
+  <si>
+    <t>Design Capability</t>
+  </si>
+  <si>
+    <t>Limited internal design required for hardware; focus remains on software integration.</t>
+  </si>
+  <si>
+    <t>In-house engineers may manage design, but external consultants may be required for factory setup.</t>
+  </si>
+  <si>
+    <t>Internal design capability may be limited; external designers or engineers may be required.</t>
+  </si>
+  <si>
+    <t>Logistics &amp; Storage</t>
+  </si>
+  <si>
+    <t>Logistics largely managed by partners, reducing storage and transport requirements.</t>
+  </si>
+  <si>
+    <t>Increased logistics complexity due to multiple manufacturing and distribution points.</t>
+  </si>
+  <si>
+    <t>Increased logistics and storage requirements due to a wider range of physical products.</t>
+  </si>
+  <si>
+    <t>ERP and licensing systems must integrate with partner platforms and sales channels.</t>
+  </si>
+  <si>
+    <t>ERP system must be enhanced to manage multiple manufacturers, suppliers, and inventory locations.</t>
+  </si>
+  <si>
+    <t>Sales systems, ERP, and support platforms must be updated to handle multiple product categories.</t>
+  </si>
+  <si>
+    <t>4 Portfolio Diversification</t>
+  </si>
+  <si>
+    <t>Manufacturing / Content Production</t>
+  </si>
 </sst>
 </file>
 
@@ -442,7 +655,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-C09]* #,##0_-;\-[$$-C09]* #,##0_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -516,8 +729,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,6 +759,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -684,6 +922,28 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -16039,7 +16299,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16348,7 +16608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A319D5E8-66D8-E44D-8254-1D3DA9747EBE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:G39"/>
     </sheetView>
   </sheetViews>
@@ -16357,4 +16617,322 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E094AB78-6115-284E-B498-28D4A728C6C9}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="47" defaultRowHeight="41" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="22" customWidth="1"/>
+    <col min="2" max="16384" width="47" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="27" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="23" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="23" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="23" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="23" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="23" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="23" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="23" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82BCD03-0B17-3C49-967D-217B30D3D635}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="65.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28" style="23" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="45" style="23" customWidth="1"/>
+    <col min="4" max="4" width="52.33203125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="51" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="65.5" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="27" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EE861A-B1E8-B948-8C7F-D88E190621B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/graph-excel.xlsx
+++ b/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/graph-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mannsee/Documents/Assessments/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903B5B97-91D9-8D49-A2FE-5741FD933FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB02B02B-DEA8-8C46-8A9B-06483067E300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="5" xr2:uid="{E87DA1E5-4B9A-F64B-9951-0716BE63B2DA}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="10020" windowHeight="18980" activeTab="6" xr2:uid="{E87DA1E5-4B9A-F64B-9951-0716BE63B2DA}"/>
   </bookViews>
   <sheets>
     <sheet name="stakeholders" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
   <si>
     <t>Stakeholder</t>
   </si>
@@ -647,6 +647,48 @@
   <si>
     <t>Manufacturing / Content Production</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>Timeframe (constraint)</t>
+  </si>
+  <si>
+    <t>Cost (constraint)</t>
+  </si>
+  <si>
+    <t>Resources required (constraint)</t>
+  </si>
+  <si>
+    <t>Manufacturing dependency (constraint)</t>
+  </si>
+  <si>
+    <t>Logistics &amp; storage (constraint)</t>
+  </si>
+  <si>
+    <t>Technology readiness (constraint)</t>
+  </si>
+  <si>
+    <t>Winner</t>
+  </si>
+  <si>
+    <t>1: Cloud-First SaaS &amp; B2C</t>
+  </si>
+  <si>
+    <t>2: Hardware Partnerships</t>
+  </si>
+  <si>
+    <t>Option 1</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>The best Alternative Solution</t>
+  </si>
 </sst>
 </file>
 
@@ -864,7 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -944,6 +986,31 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -16624,7 +16691,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="47" defaultRowHeight="41" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16762,8 +16829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82BCD03-0B17-3C49-967D-217B30D3D635}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="65.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16919,20 +16986,248 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EE861A-B1E8-B948-8C7F-D88E190621B9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="56.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="52" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" s="36" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="31">
+        <v>2</v>
+      </c>
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="31">
+        <v>2</v>
+      </c>
+      <c r="C3" s="31">
+        <v>1</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="31">
+        <v>2</v>
+      </c>
+      <c r="C4" s="31">
+        <v>1</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="31">
+        <v>2</v>
+      </c>
+      <c r="C5" s="31">
+        <v>2</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="31">
+        <v>2</v>
+      </c>
+      <c r="C6" s="31">
+        <v>1</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="31">
+        <v>2</v>
+      </c>
+      <c r="C7" s="31">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="31">
+        <v>1</v>
+      </c>
+      <c r="C8" s="31">
+        <v>2</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="31">
+        <v>1</v>
+      </c>
+      <c r="C9" s="31">
+        <v>2</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="31">
+        <v>1</v>
+      </c>
+      <c r="C10" s="31">
+        <v>2</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="31">
+        <v>2</v>
+      </c>
+      <c r="C11" s="31">
+        <v>1</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="31">
+        <v>2</v>
+      </c>
+      <c r="C12" s="31">
+        <v>1</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="31">
+        <v>2</v>
+      </c>
+      <c r="C13" s="31">
+        <v>1</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="32">
+        <f>SUM(B2:B13)</f>
+        <v>21</v>
+      </c>
+      <c r="C14" s="32">
+        <f>SUM(C2:C13)</f>
+        <v>16</v>
+      </c>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="20" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/graph-excel.xlsx
+++ b/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/graph-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mannsee/Documents/Assessments/2026-TERM1/T1B1-BSBCRT611_Apply_critical_thinking_for_complex_problem_solving/2-assessments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB02B02B-DEA8-8C46-8A9B-06483067E300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E64FEB-BDD7-EB41-9510-A0D3FB3E7C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="10020" windowHeight="18980" activeTab="6" xr2:uid="{E87DA1E5-4B9A-F64B-9951-0716BE63B2DA}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="10020" windowHeight="18980" firstSheet="4" activeTab="6" xr2:uid="{E87DA1E5-4B9A-F64B-9951-0716BE63B2DA}"/>
   </bookViews>
   <sheets>
     <sheet name="stakeholders" sheetId="1" r:id="rId1"/>
